--- a/メルレ/メルレ管理簿 _女性限定.xlsx
+++ b/メルレ/メルレ管理簿 _女性限定.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WorkFolder\メルレ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2B6DC15-3540-4F5D-9631-9DF7F8AA178B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA4730A6-EA99-4CE1-9A27-D2B63CF695D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1169,7 +1169,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1347,6 +1347,12 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -6314,7 +6320,7 @@
       <c r="E30" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F30" s="63" t="s">
+      <c r="F30" s="68" t="s">
         <v>141</v>
       </c>
       <c r="G30" s="5">
@@ -6558,7 +6564,7 @@
       <c r="E33" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F33" s="52" t="s">
+      <c r="F33" s="69" t="s">
         <v>129</v>
       </c>
       <c r="G33" s="5">

--- a/メルレ/メルレ管理簿 _女性限定.xlsx
+++ b/メルレ/メルレ管理簿 _女性限定.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WorkFolder\メルレ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA4730A6-EA99-4CE1-9A27-D2B63CF695D3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8402E1FA-8888-4706-AF1B-3A062ECECBC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1169,7 +1169,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="70">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1348,10 +1348,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3984,7 +3981,7 @@
   <dimension ref="A1:AA35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A13" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B22" sqref="B22"/>
       <selection pane="bottomLeft" activeCell="F33" sqref="F33"/>
     </sheetView>
@@ -6564,7 +6561,7 @@
       <c r="E33" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F33" s="69" t="s">
+      <c r="F33" s="33" t="s">
         <v>129</v>
       </c>
       <c r="G33" s="5">

--- a/メルレ/メルレ管理簿 _女性限定.xlsx
+++ b/メルレ/メルレ管理簿 _女性限定.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WorkFolder\メルレ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8402E1FA-8888-4706-AF1B-3A062ECECBC1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D644C7B8-3765-4765-A1A2-AFA5A7C1FD60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="名前リスト" sheetId="1" r:id="rId1"/>
@@ -3229,18 +3229,18 @@
       <selection pane="bottomLeft" activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.33203125" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.375" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="10.08203125" customWidth="1"/>
+    <col min="1" max="1" width="10.125" customWidth="1"/>
     <col min="2" max="2" width="21.75" customWidth="1"/>
-    <col min="3" max="3" width="21.33203125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.58203125" customWidth="1"/>
-    <col min="5" max="6" width="13.83203125" customWidth="1"/>
+    <col min="3" max="3" width="21.375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.625" customWidth="1"/>
+    <col min="5" max="6" width="13.875" customWidth="1"/>
     <col min="7" max="7" width="17.25" customWidth="1"/>
-    <col min="8" max="8" width="13.83203125" customWidth="1"/>
+    <col min="8" max="8" width="13.875" customWidth="1"/>
     <col min="9" max="9" width="39" customWidth="1"/>
     <col min="10" max="10" width="19.5" customWidth="1"/>
-    <col min="11" max="22" width="12.33203125" customWidth="1"/>
+    <col min="11" max="22" width="12.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="18" customHeight="1">
@@ -3986,9 +3986,9 @@
       <selection pane="bottomLeft" activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18"/>
+  <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="13.08203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.25" style="1" bestFit="1" customWidth="1"/>
@@ -3997,24 +3997,24 @@
     <col min="7" max="7" width="10.25" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.25" style="1" customWidth="1"/>
     <col min="9" max="9" width="17" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.375" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.25" style="1" customWidth="1"/>
-    <col min="12" max="12" width="18.08203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.375" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="11.25" style="1" customWidth="1"/>
-    <col min="15" max="15" width="18.08203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.375" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="11.25" style="1" customWidth="1"/>
-    <col min="18" max="18" width="18.08203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.375" style="1" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="11.25" style="1" customWidth="1"/>
-    <col min="21" max="21" width="18.08203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="18.125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.375" style="1" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="11.25" customWidth="1"/>
-    <col min="24" max="24" width="18.08203125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="12.08203125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="18.125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.125" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="14" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="18.08203125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="18.125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27">
@@ -4892,7 +4892,7 @@
       <c r="Z11" s="2"/>
       <c r="AA11" s="2"/>
     </row>
-    <row r="12" spans="1:27" ht="85.5" hidden="1">
+    <row r="12" spans="1:27" ht="87.75" hidden="1">
       <c r="A12" s="43" t="s">
         <v>38</v>
       </c>
@@ -5047,7 +5047,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:27" s="59" customFormat="1" ht="36">
+    <row r="14" spans="1:27" s="59" customFormat="1" ht="37.5">
       <c r="A14" s="35" t="s">
         <v>99</v>
       </c>
@@ -6082,7 +6082,7 @@
       <c r="Z26" s="2"/>
       <c r="AA26" s="2"/>
     </row>
-    <row r="27" spans="1:27" ht="36">
+    <row r="27" spans="1:27" ht="37.5">
       <c r="A27" s="32" t="s">
         <v>31</v>
       </c>

--- a/メルレ/メルレ管理簿 _女性限定.xlsx
+++ b/メルレ/メルレ管理簿 _女性限定.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WorkFolder\メルレ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D644C7B8-3765-4765-A1A2-AFA5A7C1FD60}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F88B68B-5265-4FB6-9EC1-BBB29F56A410}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/メルレ/メルレ管理簿 _女性限定.xlsx
+++ b/メルレ/メルレ管理簿 _女性限定.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WorkFolder\メルレ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F88B68B-5265-4FB6-9EC1-BBB29F56A410}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66EADEA2-29BC-4BF9-A940-E86641DF6667}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1169,7 +1169,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1343,9 +1343,6 @@
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3983,7 +3980,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B22" sqref="B22"/>
-      <selection pane="bottomLeft" activeCell="F33" sqref="F33"/>
+      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -6082,7 +6079,7 @@
       <c r="Z26" s="2"/>
       <c r="AA26" s="2"/>
     </row>
-    <row r="27" spans="1:27" ht="37.5">
+    <row r="27" spans="1:27" s="59" customFormat="1" ht="37.5">
       <c r="A27" s="32" t="s">
         <v>31</v>
       </c>
@@ -6093,84 +6090,84 @@
       <c r="C27" s="54">
         <v>44883</v>
       </c>
-      <c r="D27" s="6">
+      <c r="D27" s="55">
         <f t="shared" si="8"/>
         <v>18</v>
       </c>
-      <c r="E27" s="67" t="s">
+      <c r="E27" s="66" t="s">
         <v>140</v>
       </c>
-      <c r="F27" s="67" t="s">
+      <c r="F27" s="66" t="s">
         <v>139</v>
       </c>
-      <c r="G27" s="5">
+      <c r="G27" s="57">
         <f t="shared" si="1"/>
         <v>44883</v>
       </c>
-      <c r="H27" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="I27" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="J27" s="5">
+      <c r="H27" s="58" t="s">
+        <v>36</v>
+      </c>
+      <c r="I27" s="58" t="s">
+        <v>36</v>
+      </c>
+      <c r="J27" s="57">
         <f t="shared" si="2"/>
         <v>44913</v>
       </c>
-      <c r="K27" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="L27" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="M27" s="5">
+      <c r="K27" s="58" t="s">
+        <v>36</v>
+      </c>
+      <c r="L27" s="58" t="s">
+        <v>36</v>
+      </c>
+      <c r="M27" s="57">
         <f t="shared" si="3"/>
         <v>44944</v>
       </c>
-      <c r="N27" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="O27" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="P27" s="5">
+      <c r="N27" s="58" t="s">
+        <v>36</v>
+      </c>
+      <c r="O27" s="58" t="s">
+        <v>36</v>
+      </c>
+      <c r="P27" s="57">
         <f t="shared" si="4"/>
         <v>44975</v>
       </c>
-      <c r="Q27" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="R27" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="S27" s="5">
+      <c r="Q27" s="58" t="s">
+        <v>36</v>
+      </c>
+      <c r="R27" s="58" t="s">
+        <v>36</v>
+      </c>
+      <c r="S27" s="57">
         <f t="shared" si="5"/>
         <v>45003</v>
       </c>
-      <c r="T27" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="U27" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="V27" s="5">
+      <c r="T27" s="58" t="s">
+        <v>36</v>
+      </c>
+      <c r="U27" s="58" t="s">
+        <v>36</v>
+      </c>
+      <c r="V27" s="57">
         <f t="shared" si="6"/>
         <v>45034</v>
       </c>
-      <c r="W27" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="X27" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y27" s="29">
+      <c r="W27" s="58" t="s">
+        <v>36</v>
+      </c>
+      <c r="X27" s="58" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y27" s="58">
         <f t="shared" si="7"/>
         <v>45064</v>
       </c>
-      <c r="Z27" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="AA27" s="29" t="s">
+      <c r="Z27" s="58" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA27" s="58" t="s">
         <v>36</v>
       </c>
     </row>
@@ -6317,7 +6314,7 @@
       <c r="E30" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F30" s="68" t="s">
+      <c r="F30" s="67" t="s">
         <v>141</v>
       </c>
       <c r="G30" s="5">

--- a/メルレ/メルレ管理簿 _女性限定.xlsx
+++ b/メルレ/メルレ管理簿 _女性限定.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WorkFolder\メルレ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{66EADEA2-29BC-4BF9-A940-E86641DF6667}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DF63609-1A42-4941-B282-09C93F07E166}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1169,7 +1169,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1344,9 +1344,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3980,7 +3977,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B22" sqref="B22"/>
-      <selection pane="bottomLeft" activeCell="F7" sqref="F7"/>
+      <selection pane="bottomLeft" activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -6314,7 +6311,7 @@
       <c r="E30" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F30" s="67" t="s">
+      <c r="F30" s="63" t="s">
         <v>141</v>
       </c>
       <c r="G30" s="5">
@@ -6558,7 +6555,7 @@
       <c r="E33" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F33" s="33" t="s">
+      <c r="F33" s="52" t="s">
         <v>129</v>
       </c>
       <c r="G33" s="5">

--- a/メルレ/メルレ管理簿 _女性限定.xlsx
+++ b/メルレ/メルレ管理簿 _女性限定.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WorkFolder\メルレ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8DF63609-1A42-4941-B282-09C93F07E166}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97377023-BEC3-44C0-86A2-40E423BE33A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1169,7 +1169,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1344,6 +1344,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3977,7 +3980,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B22" sqref="B22"/>
-      <selection pane="bottomLeft" activeCell="F33" sqref="F33"/>
+      <selection pane="bottomLeft" activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -6555,7 +6558,7 @@
       <c r="E33" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F33" s="52" t="s">
+      <c r="F33" s="67" t="s">
         <v>129</v>
       </c>
       <c r="G33" s="5">

--- a/メルレ/メルレ管理簿 _女性限定.xlsx
+++ b/メルレ/メルレ管理簿 _女性限定.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WorkFolder\メルレ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97377023-BEC3-44C0-86A2-40E423BE33A8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB31772E-A0C2-4099-8D05-DC9AD83F5E48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1169,7 +1169,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1344,9 +1344,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3980,7 +3977,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B22" sqref="B22"/>
-      <selection pane="bottomLeft" activeCell="F30" sqref="F30"/>
+      <selection pane="bottomLeft" activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -6558,7 +6555,7 @@
       <c r="E33" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F33" s="67" t="s">
+      <c r="F33" s="33" t="s">
         <v>129</v>
       </c>
       <c r="G33" s="5">

--- a/メルレ/メルレ管理簿 _女性限定.xlsx
+++ b/メルレ/メルレ管理簿 _女性限定.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WorkFolder\メルレ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB31772E-A0C2-4099-8D05-DC9AD83F5E48}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E8B9F1F-E0BE-4E33-8E77-60C400DA0091}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3977,7 +3977,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B22" sqref="B22"/>
-      <selection pane="bottomLeft" activeCell="F33" sqref="F33"/>
+      <selection pane="bottomLeft" activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>

--- a/メルレ/メルレ管理簿 _女性限定.xlsx
+++ b/メルレ/メルレ管理簿 _女性限定.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WorkFolder\メルレ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E8B9F1F-E0BE-4E33-8E77-60C400DA0091}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{682398AF-723D-4CF4-A43E-A7850BA773E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-1340" yWindow="10690" windowWidth="22780" windowHeight="14540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="名前リスト" sheetId="1" r:id="rId1"/>
@@ -1169,7 +1169,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1344,6 +1344,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3977,7 +3980,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B22" sqref="B22"/>
-      <selection pane="bottomLeft" activeCell="F30" sqref="F30"/>
+      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -6311,7 +6314,7 @@
       <c r="E30" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F30" s="63" t="s">
+      <c r="F30" s="67" t="s">
         <v>141</v>
       </c>
       <c r="G30" s="5">

--- a/メルレ/メルレ管理簿 _女性限定.xlsx
+++ b/メルレ/メルレ管理簿 _女性限定.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WorkFolder\メルレ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{682398AF-723D-4CF4-A43E-A7850BA773E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86B0A0FF-EAA2-4AD6-A6DC-D115FCC2F618}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1340" yWindow="10690" windowWidth="22780" windowHeight="14540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="名前リスト" sheetId="1" r:id="rId1"/>

--- a/メルレ/メルレ管理簿 _女性限定.xlsx
+++ b/メルレ/メルレ管理簿 _女性限定.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WorkFolder\メルレ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86B0A0FF-EAA2-4AD6-A6DC-D115FCC2F618}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6EA56EA-4866-49F4-8263-31C43BD1F917}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>

--- a/メルレ/メルレ管理簿 _女性限定.xlsx
+++ b/メルレ/メルレ管理簿 _女性限定.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WorkFolder\メルレ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6EA56EA-4866-49F4-8263-31C43BD1F917}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D84BD4F-C4B3-41BD-8FA8-C73CF176076C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-1340" yWindow="10690" windowWidth="22780" windowHeight="14540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="名前リスト" sheetId="1" r:id="rId1"/>
@@ -3980,7 +3980,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B22" sqref="B22"/>
-      <selection pane="bottomLeft" activeCell="F4" sqref="F4"/>
+      <selection pane="bottomLeft" activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>

--- a/メルレ/メルレ管理簿 _女性限定.xlsx
+++ b/メルレ/メルレ管理簿 _女性限定.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WorkFolder\メルレ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D84BD4F-C4B3-41BD-8FA8-C73CF176076C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76FFDEF9-BB7D-4F0A-9F20-26CDC19B5BF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1340" yWindow="10690" windowWidth="22780" windowHeight="14540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="名前リスト" sheetId="1" r:id="rId1"/>
@@ -1169,7 +1169,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1344,9 +1344,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3980,7 +3977,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B22" sqref="B22"/>
-      <selection pane="bottomLeft" activeCell="F20" sqref="F20"/>
+      <selection pane="bottomLeft" activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -6314,7 +6311,7 @@
       <c r="E30" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F30" s="67" t="s">
+      <c r="F30" s="63" t="s">
         <v>141</v>
       </c>
       <c r="G30" s="5">

--- a/メルレ/メルレ管理簿 _女性限定.xlsx
+++ b/メルレ/メルレ管理簿 _女性限定.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WorkFolder\メルレ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76FFDEF9-BB7D-4F0A-9F20-26CDC19B5BF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E691C659-38CF-4359-8D77-C83E8ECFD0B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1169,7 +1169,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1344,6 +1344,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3977,7 +3980,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B22" sqref="B22"/>
-      <selection pane="bottomLeft" activeCell="F30" sqref="F30"/>
+      <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -6311,7 +6314,7 @@
       <c r="E30" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F30" s="63" t="s">
+      <c r="F30" s="67" t="s">
         <v>141</v>
       </c>
       <c r="G30" s="5">
@@ -6555,7 +6558,7 @@
       <c r="E33" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F33" s="33" t="s">
+      <c r="F33" s="52" t="s">
         <v>129</v>
       </c>
       <c r="G33" s="5">

--- a/メルレ/メルレ管理簿 _女性限定.xlsx
+++ b/メルレ/メルレ管理簿 _女性限定.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WorkFolder\メルレ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E691C659-38CF-4359-8D77-C83E8ECFD0B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5306AB38-447A-4B0B-BB2E-308886B1C2EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1169,7 +1169,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1346,6 +1346,9 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3980,7 +3983,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B22" sqref="B22"/>
-      <selection pane="bottomLeft" activeCell="F3" sqref="F3"/>
+      <selection pane="bottomLeft" activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -6558,7 +6561,7 @@
       <c r="E33" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F33" s="52" t="s">
+      <c r="F33" s="68" t="s">
         <v>129</v>
       </c>
       <c r="G33" s="5">

--- a/メルレ/メルレ管理簿 _女性限定.xlsx
+++ b/メルレ/メルレ管理簿 _女性限定.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WorkFolder\メルレ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5306AB38-447A-4B0B-BB2E-308886B1C2EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C022E2D7-C8C4-4962-AEEC-E7DC562C1D3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1169,7 +1169,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1344,12 +1344,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3983,7 +3977,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B22" sqref="B22"/>
-      <selection pane="bottomLeft" activeCell="F33" sqref="F33"/>
+      <selection pane="bottomLeft" activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -6317,7 +6311,7 @@
       <c r="E30" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F30" s="67" t="s">
+      <c r="F30" s="63" t="s">
         <v>141</v>
       </c>
       <c r="G30" s="5">
@@ -6561,7 +6555,7 @@
       <c r="E33" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F33" s="68" t="s">
+      <c r="F33" s="33" t="s">
         <v>129</v>
       </c>
       <c r="G33" s="5">

--- a/メルレ/メルレ管理簿 _女性限定.xlsx
+++ b/メルレ/メルレ管理簿 _女性限定.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WorkFolder\メルレ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C022E2D7-C8C4-4962-AEEC-E7DC562C1D3C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17772A51-BAC9-4E34-84DB-87A07C549413}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -3977,7 +3977,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B22" sqref="B22"/>
-      <selection pane="bottomLeft" activeCell="F30" sqref="F30"/>
+      <selection pane="bottomLeft" activeCell="F31" sqref="F31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -6555,7 +6555,7 @@
       <c r="E33" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F33" s="33" t="s">
+      <c r="F33" s="52" t="s">
         <v>129</v>
       </c>
       <c r="G33" s="5">

--- a/メルレ/メルレ管理簿 _女性限定.xlsx
+++ b/メルレ/メルレ管理簿 _女性限定.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WorkFolder\メルレ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17772A51-BAC9-4E34-84DB-87A07C549413}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B07ABF5B-732E-4DD9-B36D-1D2C1BA4F500}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1169,7 +1169,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1344,6 +1344,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -3977,7 +3980,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B22" sqref="B22"/>
-      <selection pane="bottomLeft" activeCell="F31" sqref="F31"/>
+      <selection pane="bottomLeft" activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -6311,7 +6314,7 @@
       <c r="E30" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F30" s="63" t="s">
+      <c r="F30" s="67" t="s">
         <v>141</v>
       </c>
       <c r="G30" s="5">

--- a/メルレ/メルレ管理簿 _女性限定.xlsx
+++ b/メルレ/メルレ管理簿 _女性限定.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WorkFolder\メルレ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B07ABF5B-732E-4DD9-B36D-1D2C1BA4F500}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F345F552-87F9-45DD-9B5D-874233BA5E39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1169,7 +1169,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1346,6 +1346,9 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3980,7 +3983,7 @@
     <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B22" sqref="B22"/>
-      <selection pane="bottomLeft" activeCell="K31" sqref="K31"/>
+      <selection pane="bottomLeft" activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -6558,7 +6561,7 @@
       <c r="E33" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F33" s="52" t="s">
+      <c r="F33" s="68" t="s">
         <v>129</v>
       </c>
       <c r="G33" s="5">

--- a/メルレ/メルレ管理簿 _女性限定.xlsx
+++ b/メルレ/メルレ管理簿 _女性限定.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26501"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WorkFolder\メルレ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F345F552-87F9-45DD-9B5D-874233BA5E39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7134D67-45F1-4441-970E-217D9B241F4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1169,7 +1169,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1346,9 +1346,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -6561,7 +6558,7 @@
       <c r="E33" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F33" s="68" t="s">
+      <c r="F33" s="33" t="s">
         <v>129</v>
       </c>
       <c r="G33" s="5">

--- a/メルレ/メルレ管理簿 _女性限定.xlsx
+++ b/メルレ/メルレ管理簿 _女性限定.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WorkFolder\メルレ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7134D67-45F1-4441-970E-217D9B241F4B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5379919A-19D5-43B6-9F62-B31BEB405939}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-1340" yWindow="10690" windowWidth="22780" windowHeight="14540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="名前リスト" sheetId="1" r:id="rId1"/>
@@ -1345,7 +1345,7 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3977,7 +3977,7 @@
   </sheetPr>
   <dimension ref="A1:AA35"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B22" sqref="B22"/>
       <selection pane="bottomLeft" activeCell="F33" sqref="F33"/>
@@ -6314,7 +6314,7 @@
       <c r="E30" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F30" s="67" t="s">
+      <c r="F30" s="63" t="s">
         <v>141</v>
       </c>
       <c r="G30" s="5">
@@ -6558,7 +6558,7 @@
       <c r="E33" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F33" s="33" t="s">
+      <c r="F33" s="67" t="s">
         <v>129</v>
       </c>
       <c r="G33" s="5">

--- a/メルレ/メルレ管理簿 _女性限定.xlsx
+++ b/メルレ/メルレ管理簿 _女性限定.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WorkFolder\メルレ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5379919A-19D5-43B6-9F62-B31BEB405939}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0F8FA3C-15C2-437C-BE22-9B1C5995C81B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-1340" yWindow="10690" windowWidth="22780" windowHeight="14540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="名前リスト" sheetId="1" r:id="rId1"/>
@@ -1345,7 +1345,7 @@
     <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -3226,18 +3226,18 @@
       <selection pane="bottomLeft" activeCell="I20" sqref="I20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.375" defaultRowHeight="15" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.33203125" defaultRowHeight="15" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="10.125" customWidth="1"/>
+    <col min="1" max="1" width="10.08203125" customWidth="1"/>
     <col min="2" max="2" width="21.75" customWidth="1"/>
-    <col min="3" max="3" width="21.375" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="12.625" customWidth="1"/>
-    <col min="5" max="6" width="13.875" customWidth="1"/>
+    <col min="3" max="3" width="21.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.58203125" customWidth="1"/>
+    <col min="5" max="6" width="13.83203125" customWidth="1"/>
     <col min="7" max="7" width="17.25" customWidth="1"/>
-    <col min="8" max="8" width="13.875" customWidth="1"/>
+    <col min="8" max="8" width="13.83203125" customWidth="1"/>
     <col min="9" max="9" width="39" customWidth="1"/>
     <col min="10" max="10" width="19.5" customWidth="1"/>
-    <col min="11" max="22" width="12.375" customWidth="1"/>
+    <col min="11" max="22" width="12.33203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" ht="18" customHeight="1">
@@ -3980,12 +3980,12 @@
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B22" sqref="B22"/>
-      <selection pane="bottomLeft" activeCell="F33" sqref="F33"/>
+      <selection pane="bottomLeft" activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75"/>
+  <sheetFormatPr defaultRowHeight="18"/>
   <cols>
-    <col min="1" max="1" width="13.125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="13.08203125" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="19.25" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11.25" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.25" style="1" bestFit="1" customWidth="1"/>
@@ -3994,24 +3994,24 @@
     <col min="7" max="7" width="10.25" style="1" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.25" style="1" customWidth="1"/>
     <col min="9" max="9" width="17" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="11.25" style="1" customWidth="1"/>
-    <col min="12" max="12" width="18.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="11.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.08203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="11.25" style="1" customWidth="1"/>
-    <col min="15" max="15" width="18.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="18.08203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="17" max="17" width="11.25" style="1" customWidth="1"/>
-    <col min="18" max="18" width="18.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="11.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="18.08203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="11.25" style="1" customWidth="1"/>
-    <col min="21" max="21" width="18.125" style="1" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="11.375" style="1" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="18.08203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="11.33203125" style="1" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="11.25" customWidth="1"/>
-    <col min="24" max="24" width="18.125" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="12.125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="18.08203125" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="12.08203125" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="14" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="18.125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="18.08203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27">
@@ -4889,7 +4889,7 @@
       <c r="Z11" s="2"/>
       <c r="AA11" s="2"/>
     </row>
-    <row r="12" spans="1:27" ht="87.75" hidden="1">
+    <row r="12" spans="1:27" ht="85.5" hidden="1">
       <c r="A12" s="43" t="s">
         <v>38</v>
       </c>
@@ -5044,7 +5044,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="14" spans="1:27" s="59" customFormat="1" ht="37.5">
+    <row r="14" spans="1:27" s="59" customFormat="1" ht="36">
       <c r="A14" s="35" t="s">
         <v>99</v>
       </c>
@@ -6079,7 +6079,7 @@
       <c r="Z26" s="2"/>
       <c r="AA26" s="2"/>
     </row>
-    <row r="27" spans="1:27" s="59" customFormat="1" ht="37.5">
+    <row r="27" spans="1:27" s="59" customFormat="1" ht="36">
       <c r="A27" s="32" t="s">
         <v>31</v>
       </c>
@@ -6314,7 +6314,7 @@
       <c r="E30" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F30" s="63" t="s">
+      <c r="F30" s="67" t="s">
         <v>141</v>
       </c>
       <c r="G30" s="5">
@@ -6558,7 +6558,7 @@
       <c r="E33" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F33" s="67" t="s">
+      <c r="F33" s="33" t="s">
         <v>129</v>
       </c>
       <c r="G33" s="5">

--- a/メルレ/メルレ管理簿 _女性限定.xlsx
+++ b/メルレ/メルレ管理簿 _女性限定.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WorkFolder\メルレ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E0F8FA3C-15C2-437C-BE22-9B1C5995C81B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D10AD597-CA47-440F-8DAC-07D4B5396E1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1169,7 +1169,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1344,9 +1344,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -6314,7 +6311,7 @@
       <c r="E30" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="F30" s="67" t="s">
+      <c r="F30" s="63" t="s">
         <v>141</v>
       </c>
       <c r="G30" s="5">

--- a/メルレ/メルレ管理簿 _女性限定.xlsx
+++ b/メルレ/メルレ管理簿 _女性限定.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WorkFolder\メルレ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D10AD597-CA47-440F-8DAC-07D4B5396E1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA1F29B7-7FF7-485B-A8B8-53ABD53FF942}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1169,7 +1169,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="67">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1344,6 +1344,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -6555,7 +6558,7 @@
       <c r="E33" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F33" s="33" t="s">
+      <c r="F33" s="67" t="s">
         <v>129</v>
       </c>
       <c r="G33" s="5">

--- a/メルレ/メルレ管理簿 _女性限定.xlsx
+++ b/メルレ/メルレ管理簿 _女性限定.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WorkFolder\メルレ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CA1F29B7-7FF7-485B-A8B8-53ABD53FF942}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{677A3999-2306-4D67-967A-CE020825EB2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="142">
   <si>
     <t>管理番号</t>
   </si>
@@ -3980,7 +3980,7 @@
     <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" zoomScaleSheetLayoutView="100" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="B22" sqref="B22"/>
-      <selection pane="bottomLeft" activeCell="F30" sqref="F30"/>
+      <selection pane="bottomLeft" activeCell="F33" sqref="F33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -6311,7 +6311,7 @@
       <c r="D30" s="6">
         <v>25</v>
       </c>
-      <c r="E30" s="2" t="s">
+      <c r="E30" s="56" t="s">
         <v>21</v>
       </c>
       <c r="F30" s="63" t="s">

--- a/メルレ/メルレ管理簿 _女性限定.xlsx
+++ b/メルレ/メルレ管理簿 _女性限定.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WorkFolder\メルレ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{677A3999-2306-4D67-967A-CE020825EB2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0930D0D6-EFE6-41A7-9A18-B7FF8250335F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="517" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="142">
   <si>
     <t>管理番号</t>
   </si>
@@ -1169,7 +1169,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1344,6 +1344,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -6297,92 +6300,92 @@
       <c r="Z29" s="56"/>
       <c r="AA29" s="56"/>
     </row>
-    <row r="30" spans="1:27">
-      <c r="A30" s="11" t="s">
+    <row r="30" spans="1:27" s="59" customFormat="1">
+      <c r="A30" s="35" t="s">
         <v>119</v>
       </c>
-      <c r="B30" s="3" t="str">
+      <c r="B30" s="53" t="str">
         <f>VLOOKUP(リマインド表[[#This Row],[管理番号]],名前リスト[[#Data],[管理番号]:[氏名]],2,FALSE)</f>
         <v>タカモリ　ハヅキ</v>
       </c>
-      <c r="C30" s="4">
+      <c r="C30" s="54">
         <v>44735</v>
       </c>
-      <c r="D30" s="6">
+      <c r="D30" s="55">
         <v>25</v>
       </c>
       <c r="E30" s="56" t="s">
         <v>21</v>
       </c>
-      <c r="F30" s="63" t="s">
+      <c r="F30" s="67" t="s">
         <v>141</v>
       </c>
-      <c r="G30" s="5">
+      <c r="G30" s="57">
         <f t="shared" si="1"/>
         <v>44735</v>
       </c>
-      <c r="H30" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="I30" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="J30" s="5">
+      <c r="H30" s="58" t="s">
+        <v>36</v>
+      </c>
+      <c r="I30" s="58" t="s">
+        <v>36</v>
+      </c>
+      <c r="J30" s="57">
         <f t="shared" si="2"/>
         <v>44765</v>
       </c>
-      <c r="K30" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="L30" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="M30" s="5">
+      <c r="K30" s="58" t="s">
+        <v>36</v>
+      </c>
+      <c r="L30" s="58" t="s">
+        <v>36</v>
+      </c>
+      <c r="M30" s="57">
         <f t="shared" si="3"/>
         <v>44796</v>
       </c>
-      <c r="N30" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="O30" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="P30" s="5">
+      <c r="N30" s="58" t="s">
+        <v>36</v>
+      </c>
+      <c r="O30" s="58" t="s">
+        <v>36</v>
+      </c>
+      <c r="P30" s="57">
         <f t="shared" si="4"/>
         <v>44827</v>
       </c>
-      <c r="Q30" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="R30" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="S30" s="5">
+      <c r="Q30" s="58" t="s">
+        <v>36</v>
+      </c>
+      <c r="R30" s="58" t="s">
+        <v>36</v>
+      </c>
+      <c r="S30" s="57">
         <f t="shared" si="5"/>
         <v>44857</v>
       </c>
-      <c r="T30" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="U30" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="V30" s="5">
+      <c r="T30" s="58" t="s">
+        <v>36</v>
+      </c>
+      <c r="U30" s="58" t="s">
+        <v>36</v>
+      </c>
+      <c r="V30" s="57">
         <f t="shared" si="6"/>
         <v>44888</v>
       </c>
-      <c r="W30" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="X30" s="29" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y30" s="29">
+      <c r="W30" s="58" t="s">
+        <v>36</v>
+      </c>
+      <c r="X30" s="58" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y30" s="58">
         <f t="shared" si="7"/>
         <v>44918</v>
       </c>
-      <c r="Z30" s="29"/>
-      <c r="AA30" s="29"/>
+      <c r="Z30" s="58"/>
+      <c r="AA30" s="58"/>
     </row>
     <row r="31" spans="1:27">
       <c r="A31" s="11" t="s">
@@ -6558,7 +6561,7 @@
       <c r="E33" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F33" s="67" t="s">
+      <c r="F33" s="68" t="s">
         <v>129</v>
       </c>
       <c r="G33" s="5">

--- a/メルレ/メルレ管理簿 _女性限定.xlsx
+++ b/メルレ/メルレ管理簿 _女性限定.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WorkFolder\メルレ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0930D0D6-EFE6-41A7-9A18-B7FF8250335F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D04C6D3A-1E22-4DBA-B486-580680F4C29B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="516" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="545" uniqueCount="142">
   <si>
     <t>管理番号</t>
   </si>

--- a/メルレ/メルレ管理簿 _女性限定.xlsx
+++ b/メルレ/メルレ管理簿 _女性限定.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WorkFolder\メルレ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D04C6D3A-1E22-4DBA-B486-580680F4C29B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD52831F-3F2D-4BA0-BDD7-146629BCDE21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1169,7 +1169,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="68">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1346,9 +1346,6 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -6561,7 +6558,7 @@
       <c r="E33" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F33" s="68" t="s">
+      <c r="F33" s="52" t="s">
         <v>129</v>
       </c>
       <c r="G33" s="5">

--- a/メルレ/メルレ管理簿 _女性限定.xlsx
+++ b/メルレ/メルレ管理簿 _女性限定.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WorkFolder\メルレ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD52831F-3F2D-4BA0-BDD7-146629BCDE21}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B3E055C6-181B-4A5F-9E80-18CA836861BD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="22780" windowHeight="14540" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1169,7 +1169,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="69">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -1346,6 +1346,9 @@
       <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -6558,7 +6561,7 @@
       <c r="E33" s="6" t="s">
         <v>21</v>
       </c>
-      <c r="F33" s="52" t="s">
+      <c r="F33" s="68" t="s">
         <v>129</v>
       </c>
       <c r="G33" s="5">
